--- a/data/trans_orig/CONS_HIP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_HIP-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en País Vasco</t>
+          <t>Consumo de hipnóticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Andalucia</t>
+          <t>Consumo de hipnóticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en C.Valenciana</t>
+          <t>Consumo de hipnóticos en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Barcelona</t>
+          <t>Consumo de hipnóticos en Barcelona (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_HIP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_HIP-Edad-trans_orig.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>715</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>237</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>805</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>362</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>106</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>963</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -849,27 +849,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62542</t>
+          <t>76757</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61446</t>
+          <t>76166</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>99,84%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -884,27 +884,27 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62213</t>
+          <t>66005</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61380</t>
+          <t>65437</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124755</t>
+          <t>142761</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>123390</t>
+          <t>142160</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125215</t>
+          <t>143017</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>99,93%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>131</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>555</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>627</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>221</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>758</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>247</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2225</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -1192,27 +1192,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69043</t>
+          <t>74852</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68484</t>
+          <t>74428</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61651</t>
+          <t>67421</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60403</t>
+          <t>66213</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62238</t>
+          <t>67827</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>130693</t>
+          <t>142273</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>129422</t>
+          <t>141339</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131307</t>
+          <t>142784</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>99,83%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>749</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5071</t>
+          <t>5004</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>4851</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6683</t>
+          <t>7433</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93554</t>
+          <t>102290</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92238</t>
+          <t>100482</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94175</t>
+          <t>103211</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94346</t>
+          <t>107534</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92434</t>
+          <t>105711</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95703</t>
+          <t>108883</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>187900</t>
+          <t>209824</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>185517</t>
+          <t>207242</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>189432</t>
+          <t>211490</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>98,52%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5794</t>
+          <t>6052</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3952</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8036</t>
+          <t>8572</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7368</t>
+          <t>7294</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5345</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10080</t>
+          <t>10129</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13161</t>
+          <t>13345</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10116</t>
+          <t>10636</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16277</t>
+          <t>16669</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>133620</t>
+          <t>138726</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>131378</t>
+          <t>136206</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>135462</t>
+          <t>140494</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>130607</t>
+          <t>145250</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>127895</t>
+          <t>142415</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>132630</t>
+          <t>147305</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>264229</t>
+          <t>283976</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>261113</t>
+          <t>280652</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>267274</t>
+          <t>286685</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,42%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8678</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6268</t>
+          <t>5298</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11483</t>
+          <t>10051</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13178</t>
+          <t>13573</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10639</t>
+          <t>10931</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16427</t>
+          <t>17083</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>21856</t>
+          <t>21003</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>18235</t>
+          <t>17474</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>26013</t>
+          <t>25063</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>118176</t>
+          <t>122152</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>115371</t>
+          <t>119531</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>120586</t>
+          <t>124284</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>134163</t>
+          <t>138342</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>130914</t>
+          <t>134832</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>136702</t>
+          <t>140984</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>252338</t>
+          <t>260495</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>248181</t>
+          <t>256435</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>255959</t>
+          <t>264024</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>93,79%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7543</t>
+          <t>8978</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>6732</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10030</t>
+          <t>11443</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15210</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12626</t>
+          <t>13877</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18392</t>
+          <t>20435</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>22753</t>
+          <t>25978</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>19134</t>
+          <t>22287</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>26520</t>
+          <t>30149</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>95488</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>97574</t>
+          <t>93023</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>101973</t>
+          <t>97734</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>89,05%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>99698</t>
+          <t>98780</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>96516</t>
+          <t>95345</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>102282</t>
+          <t>101903</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>82,35%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>199759</t>
+          <t>194268</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>195992</t>
+          <t>190097</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>203378</t>
+          <t>197959</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>89,88%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16524</t>
+          <t>15126</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13515</t>
+          <t>12172</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20187</t>
+          <t>18247</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>40848</t>
+          <t>39507</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36622</t>
+          <t>35049</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>45600</t>
+          <t>44185</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>57372</t>
+          <t>54633</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>51112</t>
+          <t>49196</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>63004</t>
+          <t>60462</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>27,29%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>79831</t>
+          <t>74097</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>76168</t>
+          <t>70976</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>82840</t>
+          <t>77051</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>82,85%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>79,55%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>85,97%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>93083</t>
+          <t>92805</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>88331</t>
+          <t>88127</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>97309</t>
+          <t>97263</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>69,5%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>172914</t>
+          <t>166902</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>167282</t>
+          <t>161073</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>179174</t>
+          <t>172339</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>75,09%</t>
+          <t>75,34%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>72,64%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,81%</t>
+          <t>77,79%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3137,32 +3137,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>40075</t>
+          <t>39511</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>35069</t>
+          <t>34726</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>45637</t>
+          <t>45037</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3172,32 +3172,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>80875</t>
+          <t>81418</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>73901</t>
+          <t>74968</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>88670</t>
+          <t>89543</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>120950</t>
+          <t>120930</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>111698</t>
+          <t>111446</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>129766</t>
+          <t>130345</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -3250,32 +3250,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>656828</t>
+          <t>684361</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>651266</t>
+          <t>678835</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>661834</t>
+          <t>689146</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3285,32 +3285,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>675760</t>
+          <t>716138</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>667965</t>
+          <t>708013</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>682734</t>
+          <t>722588</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3320,32 +3320,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1332588</t>
+          <t>1400499</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1323772</t>
+          <t>1391084</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1341840</t>
+          <t>1409983</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>92,67%</t>
         </is>
       </c>
     </row>
@@ -3363,17 +3363,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19607</t>
+          <t>18555</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24039</t>
+          <t>24726</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>4891</t>
+          <t>5584</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>28959</t>
+          <t>30094</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>216629</t>
+          <t>217681</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3876,12 +3876,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>160314</t>
+          <t>159627</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>180950</t>
+          <t>180378</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>86,96%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>391630</t>
+          <t>390495</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>415698</t>
+          <t>415005</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>98,67%</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12929</t>
+          <t>13404</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13297</t>
+          <t>13949</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>228222</t>
+          <t>228283</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>301499</t>
+          <t>301024</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313255</t>
+          <t>313241</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>530499</t>
+          <t>529847</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542531</t>
+          <t>542187</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>99,7%</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5184</t>
+          <t>5241</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20230</t>
+          <t>19805</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6956</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18270</t>
+          <t>18866</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>14659</t>
+          <t>15479</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>33681</t>
+          <t>34460</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>290539</t>
+          <t>290964</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>305585</t>
+          <t>305528</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>304343</t>
+          <t>303747</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>315657</t>
+          <t>315378</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4597,12 +4597,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>599700</t>
+          <t>598921</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>618722</t>
+          <t>617902</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>97,56%</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7458</t>
+          <t>6688</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41030</t>
+          <t>41554</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28045</t>
+          <t>27803</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55504</t>
+          <t>56746</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>28655</t>
+          <t>28818</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>87213</t>
+          <t>86572</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,39%</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>586134</t>
+          <t>585610</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>619706</t>
+          <t>620476</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>349138</t>
+          <t>347896</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>376597</t>
+          <t>376839</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>86,28%</t>
+          <t>85,98%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>944593</t>
+          <t>945234</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1003151</t>
+          <t>1002988</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,21%</t>
         </is>
       </c>
     </row>
@@ -5100,12 +5100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13387</t>
+          <t>13115</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29401</t>
+          <t>30174</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>39496</t>
+          <t>39648</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>58549</t>
+          <t>58667</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>55761</t>
+          <t>56352</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>81501</t>
+          <t>80823</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5185,12 +5185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>309728</t>
+          <t>308955</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>325742</t>
+          <t>326014</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>260345</t>
+          <t>260227</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>279398</t>
+          <t>279246</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,64%</t>
+          <t>81,6%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>87,57%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>576523</t>
+          <t>577201</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>602263</t>
+          <t>601672</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>91,44%</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11421</t>
+          <t>11466</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23835</t>
+          <t>23477</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5458,12 +5458,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13508</t>
+          <t>11036</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>76692</t>
+          <t>78219</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>25159</t>
+          <t>21137</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>85942</t>
+          <t>87039</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>13,17%</t>
         </is>
       </c>
     </row>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>184249</t>
+          <t>184607</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>196663</t>
+          <t>196618</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>375950</t>
+          <t>374423</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>439134</t>
+          <t>441606</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,06%</t>
+          <t>82,72%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>574785</t>
+          <t>573688</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>635568</t>
+          <t>639590</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,8%</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>15143</t>
+          <t>14690</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28023</t>
+          <t>28367</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>48611</t>
+          <t>48958</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>68304</t>
+          <t>69308</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>29,71%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>66931</t>
+          <t>67842</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>90699</t>
+          <t>90933</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>23,65%</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>123262</t>
+          <t>122918</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>136142</t>
+          <t>136595</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>81,48%</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>164969</t>
+          <t>163965</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>184662</t>
+          <t>184315</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>70,72%</t>
+          <t>70,29%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>79,01%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>293859</t>
+          <t>293625</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>317627</t>
+          <t>316716</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>82,36%</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>61522</t>
+          <t>62953</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>117628</t>
+          <t>118656</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>151738</t>
+          <t>146355</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>248858</t>
+          <t>242874</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>247040</t>
+          <t>237800</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>354117</t>
+          <t>349051</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1984407</t>
+          <t>1983379</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2040513</t>
+          <t>2039082</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1981987</t>
+          <t>1987971</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2079107</t>
+          <t>2084490</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3978763</t>
+          <t>3983829</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4085840</t>
+          <t>4095080</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6327,12 +6327,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,51%</t>
         </is>
       </c>
     </row>
@@ -9702,12 +9702,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7343</t>
+          <t>7550</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>453</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>5236</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10207</t>
+          <t>10655</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,44%</t>
         </is>
       </c>
     </row>
@@ -9815,12 +9815,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57330</t>
+          <t>57123</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62866</t>
+          <t>62812</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56000</t>
+          <t>56304</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61076</t>
+          <t>61087</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9865,12 +9865,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9885,12 +9885,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>116007</t>
+          <t>115559</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>123203</t>
+          <t>123002</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,46%</t>
         </is>
       </c>
     </row>
@@ -10045,12 +10045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8288</t>
+          <t>8710</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11363</t>
+          <t>11874</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6826</t>
+          <t>6854</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>16950</t>
+          <t>16256</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -10158,12 +10158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>114652</t>
+          <t>114230</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>120791</t>
+          <t>120601</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>116668</t>
+          <t>116157</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>124554</t>
+          <t>124678</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -10228,12 +10228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>234021</t>
+          <t>234715</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>244145</t>
+          <t>244117</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4784</t>
+          <t>4721</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15047</t>
+          <t>13934</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -10423,12 +10423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>4507</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11782</t>
+          <t>11159</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10559</t>
+          <t>10454</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>23824</t>
+          <t>22912</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>123755</t>
+          <t>124868</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>134018</t>
+          <t>134081</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>119200</t>
+          <t>119823</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>126772</t>
+          <t>126475</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10571,12 +10571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>245960</t>
+          <t>246872</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>259225</t>
+          <t>259330</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,13%</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>6083</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15270</t>
+          <t>15208</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10746,12 +10746,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8199</t>
+          <t>8251</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17566</t>
+          <t>17363</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>16169</t>
+          <t>15635</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>29307</t>
+          <t>29136</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -10844,12 +10844,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>102381</t>
+          <t>102443</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>111411</t>
+          <t>111568</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,02%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>101966</t>
+          <t>102169</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>111333</t>
+          <t>111281</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>85,3%</t>
+          <t>85,47%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10914,12 +10914,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>207876</t>
+          <t>208047</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>221014</t>
+          <t>221548</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10929,12 +10929,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>93,41%</t>
         </is>
       </c>
     </row>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5257</t>
+          <t>4852</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15895</t>
+          <t>14623</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19239</t>
+          <t>19106</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>34172</t>
+          <t>34347</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>25652</t>
+          <t>25466</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>44566</t>
+          <t>44021</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>82118</t>
+          <t>83390</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>92756</t>
+          <t>93161</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11202,12 +11202,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,78%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11222,12 +11222,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>81688</t>
+          <t>81513</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>96621</t>
+          <t>96754</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11237,12 +11237,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>70,51%</t>
+          <t>70,36%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>83,4%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>169308</t>
+          <t>169853</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>188222</t>
+          <t>188408</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>88,09%</t>
         </is>
       </c>
     </row>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4277</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15250</t>
+          <t>14274</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14145</t>
+          <t>14164</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>26027</t>
+          <t>26068</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11487,12 +11487,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20800</t>
+          <t>20907</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>36753</t>
+          <t>36596</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>23,24%</t>
         </is>
       </c>
     </row>
@@ -11530,12 +11530,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53852</t>
+          <t>54828</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>64825</t>
+          <t>64690</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11545,12 +11545,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>62333</t>
+          <t>62292</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>74215</t>
+          <t>74196</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>70,5%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11600,12 +11600,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>120709</t>
+          <t>120866</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>136662</t>
+          <t>136555</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>76,66%</t>
+          <t>76,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>86,72%</t>
         </is>
       </c>
     </row>
@@ -11760,12 +11760,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9052</t>
+          <t>8889</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18834</t>
+          <t>18620</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>32689</t>
+          <t>32842</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>48566</t>
+          <t>48883</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>43447</t>
+          <t>44277</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>63237</t>
+          <t>63283</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>34,78%</t>
         </is>
       </c>
     </row>
@@ -11873,12 +11873,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>50172</t>
+          <t>50386</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>59954</t>
+          <t>60117</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11888,12 +11888,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>64375</t>
+          <t>64058</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>80252</t>
+          <t>80099</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>57,0%</t>
+          <t>56,72%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>71,06%</t>
+          <t>70,92%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>118710</t>
+          <t>118664</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>138500</t>
+          <t>137670</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>76,12%</t>
+          <t>75,66%</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>46553</t>
+          <t>45349</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>68541</t>
+          <t>68340</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>97974</t>
+          <t>97693</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>129208</t>
+          <t>129530</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>151243</t>
+          <t>150702</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>187615</t>
+          <t>190211</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>13,23%</t>
         </is>
       </c>
     </row>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>611647</t>
+          <t>611848</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>633635</t>
+          <t>634839</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>628038</t>
+          <t>627716</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>659272</t>
+          <t>659553</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>82,94%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>87,06%</t>
+          <t>87,1%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1249819</t>
+          <t>1247223</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1286191</t>
+          <t>1286732</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12301,12 +12301,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>89,52%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_HIP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_HIP-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de hipnóticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>16878</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -761,77 +761,77 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>11416</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>26458</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>14807</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>31196</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76757</t>
+          <t>237875</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76166</t>
+          <t>224387</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -879,72 +879,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66005</t>
+          <t>208239</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65437</t>
+          <t>193197</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>215290</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>206</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>142761</t>
+          <t>446113</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>142160</t>
+          <t>429724</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>143017</t>
+          <t>454980</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>98,71%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>9572</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,67 +1114,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>5319</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>13484</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>8140</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>17329</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>259152</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>252402</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>261974</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98,92%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96,35%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>278134</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>269969</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>281984</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>98,12%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>95,24%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>99,48%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>396</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>74852</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>74428</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>74983</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>99,83%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>99,26%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>67421</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>66213</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>67827</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>99,08%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>97,3%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>99,68%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>759</t>
-        </is>
-      </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142273</t>
+          <t>537286</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>141339</t>
+          <t>528097</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>142784</t>
+          <t>541952</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,36%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>11552</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>5441</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3478</t>
+          <t>20871</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3181</t>
+          <t>13782</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>8339</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>21273</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4851</t>
+          <t>25333</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3185</t>
+          <t>17480</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7433</t>
+          <t>37719</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>5,09%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102290</t>
+          <t>356766</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>100482</t>
+          <t>347447</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103211</t>
+          <t>362877</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>475</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>107534</t>
+          <t>359603</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>105711</t>
+          <t>352112</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>108883</t>
+          <t>365046</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>779</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>209824</t>
+          <t>716370</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>207242</t>
+          <t>703984</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>211490</t>
+          <t>724223</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>97,64%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6052</t>
+          <t>24601</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4284</t>
+          <t>15398</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>35698</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7294</t>
+          <t>33899</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>26310</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10129</t>
+          <t>43414</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13345</t>
+          <t>58500</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10636</t>
+          <t>45879</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16669</t>
+          <t>72802</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>138726</t>
+          <t>399340</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>136206</t>
+          <t>388243</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>140494</t>
+          <t>408543</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>607</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>145250</t>
+          <t>406685</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>142415</t>
+          <t>397170</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>147305</t>
+          <t>414274</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>975</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>283976</t>
+          <t>806025</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>280652</t>
+          <t>791723</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>286685</t>
+          <t>818646</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>94,69%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>659</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>440584</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>440584</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>440584</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>864525</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>864525</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>864525</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>20938</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5298</t>
+          <t>13750</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10051</t>
+          <t>31109</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13573</t>
+          <t>54180</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10931</t>
+          <t>44882</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17083</t>
+          <t>66112</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>109</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>21003</t>
+          <t>75118</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>17474</t>
+          <t>61846</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>25063</t>
+          <t>89186</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>12,24%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>122152</t>
+          <t>347105</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>119531</t>
+          <t>336934</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>124284</t>
+          <t>354293</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>480</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>138342</t>
+          <t>306186</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>134832</t>
+          <t>294254</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>140984</t>
+          <t>315484</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>84,97%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>81,65%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>855</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>260495</t>
+          <t>653290</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>256435</t>
+          <t>639222</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>264024</t>
+          <t>666562</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>91,51%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8978</t>
+          <t>17746</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6732</t>
+          <t>12158</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11443</t>
+          <t>25079</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>45156</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13877</t>
+          <t>36821</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20435</t>
+          <t>55364</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>105</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>25978</t>
+          <t>62902</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>22287</t>
+          <t>52411</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>30149</t>
+          <t>75161</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>14,99%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>95488</t>
+          <t>213527</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>93023</t>
+          <t>206194</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>97734</t>
+          <t>219115</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,05%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>403</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>98780</t>
+          <t>224876</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>95345</t>
+          <t>214668</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>101903</t>
+          <t>233211</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>79,5%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1191</t>
+          <t>694</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>194268</t>
+          <t>438402</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>190097</t>
+          <t>426143</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>197959</t>
+          <t>448893</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>86,31%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>89,55%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15126</t>
+          <t>22891</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12172</t>
+          <t>16403</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18247</t>
+          <t>31204</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>39507</t>
+          <t>64604</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>35049</t>
+          <t>54228</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>44185</t>
+          <t>76586</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>142</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>54633</t>
+          <t>87495</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>49196</t>
+          <t>74765</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>60462</t>
+          <t>100519</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>23,86%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>74097</t>
+          <t>142195</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>70976</t>
+          <t>133882</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77051</t>
+          <t>148683</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>83,05%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>92805</t>
+          <t>191672</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>88127</t>
+          <t>179690</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>97263</t>
+          <t>202048</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>74,79%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>70,12%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>73,51%</t>
+          <t>78,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>166902</t>
+          <t>333867</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>161073</t>
+          <t>320843</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>172339</t>
+          <t>346597</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>75,34%</t>
+          <t>79,24%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>76,14%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,79%</t>
+          <t>82,26%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3132,107 +3132,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>39511</t>
+          <t>103940</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>34726</t>
+          <t>85040</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>45037</t>
+          <t>123434</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>352</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>81418</t>
+          <t>228355</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>74968</t>
+          <t>206166</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>89543</t>
+          <t>253567</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>469</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>120930</t>
+          <t>332295</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>111446</t>
+          <t>297175</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>130345</t>
+          <t>363058</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,52%</t>
         </is>
       </c>
     </row>
@@ -3245,107 +3245,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>684361</t>
+          <t>1955960</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>678835</t>
+          <t>1936466</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>689146</t>
+          <t>1974860</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3976</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>716138</t>
+          <t>1975395</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>708013</t>
+          <t>1950183</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>722588</t>
+          <t>1997584</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7817</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1400499</t>
+          <t>3931355</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1391084</t>
+          <t>3900592</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1409983</t>
+          <t>3966475</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>93,03%</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2203750</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2203750</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2203750</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3428,22 +3428,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4263650</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4263650</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4263650</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Andalucia (tasa de respuesta: 99,84%)</t>
+          <t>Consumo de hipnóticos en Barcelona (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3718,107 +3718,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18555</t>
+          <t>7550</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10449</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3975</t>
+          <t>453</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24726</t>
+          <t>5236</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14272</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5584</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>30094</t>
+          <t>10655</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>8,44%</t>
         </is>
       </c>
     </row>
@@ -3831,107 +3831,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>232413</t>
+          <t>60809</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>217681</t>
+          <t>57123</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>62812</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>173904</t>
+          <t>59566</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>159627</t>
+          <t>56304</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>180378</t>
+          <t>61087</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>309</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>406317</t>
+          <t>120376</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>390495</t>
+          <t>115559</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>415005</t>
+          <t>123002</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>97,46%</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4061,107 +4061,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>4593</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>8710</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>6404</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13404</t>
+          <t>11874</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>5457</t>
+          <t>10997</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>6854</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13949</t>
+          <t>16256</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -4174,107 +4174,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229033</t>
+          <t>118347</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>228283</t>
+          <t>114230</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>120601</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>272</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>309306</t>
+          <t>121627</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>301024</t>
+          <t>116157</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313241</t>
+          <t>124678</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>531</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>538339</t>
+          <t>239974</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>529847</t>
+          <t>234715</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542187</t>
+          <t>244117</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>122940</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>122940</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>122940</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4322,22 +4322,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4357,22 +4357,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>556</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>250971</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>250971</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>250971</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4404,107 +4404,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11091</t>
+          <t>8216</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>4721</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19805</t>
+          <t>13934</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12063</t>
+          <t>7124</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>4507</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18866</t>
+          <t>11159</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>23154</t>
+          <t>15340</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>15479</t>
+          <t>10454</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>34460</t>
+          <t>22912</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -4517,107 +4517,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>299678</t>
+          <t>130586</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>290964</t>
+          <t>124868</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>305528</t>
+          <t>134081</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>310550</t>
+          <t>123858</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>303747</t>
+          <t>119823</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>315378</t>
+          <t>126475</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>593</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>610227</t>
+          <t>254444</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>598921</t>
+          <t>246872</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>617902</t>
+          <t>259330</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>96,13%</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>138802</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>138802</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>138802</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130982</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130982</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130982</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>631</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>269784</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>269784</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>269784</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4747,107 +4747,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22148</t>
+          <t>9652</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6688</t>
+          <t>6083</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41554</t>
+          <t>15208</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12230</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8251</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17363</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>37006</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>27803</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>56746</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>9,15%</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>6,87%</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>14,02%</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>59154</t>
+          <t>21882</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>28818</t>
+          <t>15635</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>86572</t>
+          <t>29136</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -4860,107 +4860,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>605016</t>
+          <t>107999</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>585610</t>
+          <t>102443</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>620476</t>
+          <t>111568</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>367636</t>
+          <t>107302</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>347896</t>
+          <t>102169</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>376839</t>
+          <t>111281</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>85,98%</t>
+          <t>85,47%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>530</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>972652</t>
+          <t>215301</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>945234</t>
+          <t>208047</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1002988</t>
+          <t>221548</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>93,41%</t>
         </is>
       </c>
     </row>
@@ -4973,22 +4973,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5008,22 +5008,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404642</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404642</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404642</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5043,22 +5043,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031806</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031806</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031806</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5090,107 +5090,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>20136</t>
+          <t>8628</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13115</t>
+          <t>4852</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30174</t>
+          <t>14623</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>48060</t>
+          <t>25390</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>39648</t>
+          <t>19106</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>58667</t>
+          <t>34347</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>68196</t>
+          <t>34018</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>56352</t>
+          <t>25466</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>80823</t>
+          <t>44021</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -5203,107 +5203,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>318993</t>
+          <t>89385</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>308955</t>
+          <t>83390</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>326014</t>
+          <t>93161</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>225</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>270834</t>
+          <t>90470</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>260227</t>
+          <t>81513</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>279246</t>
+          <t>96754</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>78,09%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,6%</t>
+          <t>70,36%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>434</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>589828</t>
+          <t>179856</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>577201</t>
+          <t>169853</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>601672</t>
+          <t>188408</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>84,09%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>88,09%</t>
         </is>
       </c>
     </row>
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5386,22 +5386,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5433,107 +5433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>7962</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11466</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23477</t>
+          <t>14274</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39997</t>
+          <t>19345</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11036</t>
+          <t>14164</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>78219</t>
+          <t>26068</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>56765</t>
+          <t>27307</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>21137</t>
+          <t>20907</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>87039</t>
+          <t>36596</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>23,24%</t>
         </is>
       </c>
     </row>
@@ -5546,107 +5546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>191316</t>
+          <t>61140</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>184607</t>
+          <t>54828</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>196618</t>
+          <t>64690</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>412645</t>
+          <t>69015</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>374423</t>
+          <t>62292</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>441606</t>
+          <t>74196</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>70,5%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>337</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>603962</t>
+          <t>130155</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>573688</t>
+          <t>120866</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>639590</t>
+          <t>136555</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>76,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>86,72%</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5694,22 +5694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5729,22 +5729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5776,107 +5776,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>20630</t>
+          <t>13209</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14690</t>
+          <t>8889</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28367</t>
+          <t>18620</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>58357</t>
+          <t>40095</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>48958</t>
+          <t>32842</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>69308</t>
+          <t>48883</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>78987</t>
+          <t>53304</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>67842</t>
+          <t>44277</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>90933</t>
+          <t>63283</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>34,78%</t>
         </is>
       </c>
     </row>
@@ -5889,107 +5889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>130655</t>
+          <t>55797</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>122918</t>
+          <t>50386</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>136595</t>
+          <t>60117</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>80,86%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>81,25%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>206</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>174916</t>
+          <t>72846</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>163965</t>
+          <t>64058</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>184315</t>
+          <t>80099</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>74,98%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>70,29%</t>
+          <t>56,72%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>79,01%</t>
+          <t>70,92%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>367</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>305571</t>
+          <t>128643</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>293625</t>
+          <t>118664</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>316716</t>
+          <t>137670</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>75,66%</t>
         </is>
       </c>
     </row>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6037,22 +6037,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>306</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>112941</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>112941</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>112941</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6072,22 +6072,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>499</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>181947</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>181947</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>181947</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6119,107 +6119,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>94931</t>
+          <t>56125</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>62953</t>
+          <t>45349</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>118656</t>
+          <t>68340</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>271</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>211054</t>
+          <t>112561</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>146355</t>
+          <t>97693</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>242874</t>
+          <t>129530</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>403</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>305986</t>
+          <t>168685</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>237800</t>
+          <t>150702</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>349051</t>
+          <t>190211</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>13,23%</t>
         </is>
       </c>
     </row>
@@ -6232,107 +6232,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2007104</t>
+          <t>624063</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1983379</t>
+          <t>611848</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2039082</t>
+          <t>634839</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2019791</t>
+          <t>644685</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1987971</t>
+          <t>627716</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2084490</t>
+          <t>659553</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>87,1%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4433</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4026894</t>
+          <t>1268749</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3983829</t>
+          <t>1247223</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4095080</t>
+          <t>1286732</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>89,52%</t>
         </is>
       </c>
     </row>
@@ -6345,22 +6345,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>680188</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>680188</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>680188</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6380,22 +6380,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2230845</t>
+          <t>757246</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2230845</t>
+          <t>757246</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2230845</t>
+          <t>757246</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6415,22 +6415,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4332880</t>
+          <t>1437434</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4332880</t>
+          <t>1437434</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4332880</t>
+          <t>1437434</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Barcelona (tasa de respuesta: 99,77%)</t>
+          <t>Consumo de hipnóticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9692,107 +9692,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7550</t>
+          <t>715</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>237</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>805</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>362</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>106</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10655</t>
+          <t>963</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -9805,107 +9805,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60809</t>
+          <t>76757</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57123</t>
+          <t>76166</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62812</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>99,84%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>346</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59566</t>
+          <t>66005</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56304</t>
+          <t>65437</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61087</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>721</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>120376</t>
+          <t>142761</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>115559</t>
+          <t>142160</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>123002</t>
+          <t>143017</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>99,93%</t>
         </is>
       </c>
     </row>
@@ -9918,22 +9918,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9953,22 +9953,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9988,22 +9988,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -10035,107 +10035,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>131</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8710</t>
+          <t>555</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6404</t>
+          <t>627</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>221</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11874</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10997</t>
+          <t>758</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6854</t>
+          <t>247</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>16256</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -10148,107 +10148,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>118347</t>
+          <t>74852</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>114230</t>
+          <t>74428</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>120601</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>363</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>121627</t>
+          <t>67421</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>116157</t>
+          <t>66213</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>124678</t>
+          <t>67827</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>759</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>239974</t>
+          <t>142273</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>234715</t>
+          <t>141339</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>244117</t>
+          <t>142784</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>99,83%</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>122940</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>122940</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>122940</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10296,22 +10296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10331,22 +10331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>250971</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>250971</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>250971</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10378,107 +10378,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8216</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4721</t>
+          <t>749</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13934</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7124</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4507</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11159</t>
+          <t>5004</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>15340</t>
+          <t>4851</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10454</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>22912</t>
+          <t>7433</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -10491,107 +10491,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>130586</t>
+          <t>102290</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>124868</t>
+          <t>100482</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>134081</t>
+          <t>103211</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,96%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>563</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>123858</t>
+          <t>107534</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>119823</t>
+          <t>105711</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>126475</t>
+          <t>108883</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>254444</t>
+          <t>209824</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>246872</t>
+          <t>207242</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>259330</t>
+          <t>211490</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>98,52%</t>
         </is>
       </c>
     </row>
@@ -10604,22 +10604,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>138802</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>138802</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>138802</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10639,22 +10639,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>130982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>130982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>130982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>269784</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>269784</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>269784</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10721,107 +10721,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9652</t>
+          <t>6052</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6083</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15208</t>
+          <t>8572</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12230</t>
+          <t>7294</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8251</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17363</t>
+          <t>10129</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>21882</t>
+          <t>13345</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>15635</t>
+          <t>10636</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>29136</t>
+          <t>16669</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -10834,107 +10834,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>768</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>107999</t>
+          <t>138726</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>102443</t>
+          <t>136206</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>111568</t>
+          <t>140494</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>769</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>107302</t>
+          <t>145250</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>102169</t>
+          <t>142415</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>111281</t>
+          <t>147305</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>215301</t>
+          <t>283976</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>208047</t>
+          <t>280652</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>221548</t>
+          <t>286685</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>96,42%</t>
         </is>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10982,22 +10982,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11017,22 +11017,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -11064,107 +11064,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8628</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>5298</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14623</t>
+          <t>10051</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25390</t>
+          <t>13573</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19106</t>
+          <t>10931</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>34347</t>
+          <t>17083</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>126</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>34018</t>
+          <t>21003</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>25466</t>
+          <t>17474</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>44021</t>
+          <t>25063</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -11177,107 +11177,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>687</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89385</t>
+          <t>122152</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83390</t>
+          <t>119531</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93161</t>
+          <t>124284</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>779</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90470</t>
+          <t>138342</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>81513</t>
+          <t>134832</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>96754</t>
+          <t>140984</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>70,36%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>83,51%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>179856</t>
+          <t>260495</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>169853</t>
+          <t>256435</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>188408</t>
+          <t>264024</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>79,42%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>93,79%</t>
         </is>
       </c>
     </row>
@@ -11290,22 +11290,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11325,22 +11325,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11407,107 +11407,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7962</t>
+          <t>8978</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>6732</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14274</t>
+          <t>11443</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19345</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14164</t>
+          <t>13877</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>26068</t>
+          <t>20435</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>158</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>27307</t>
+          <t>25978</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20907</t>
+          <t>22287</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>36596</t>
+          <t>30149</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -11520,107 +11520,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>595</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>61140</t>
+          <t>95488</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>54828</t>
+          <t>93023</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>64690</t>
+          <t>97734</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>79,34%</t>
+          <t>89,05%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>596</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>69015</t>
+          <t>98780</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>62292</t>
+          <t>95345</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>74196</t>
+          <t>101903</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>78,11%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>70,5%</t>
+          <t>82,35%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>1191</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>130155</t>
+          <t>194268</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>120866</t>
+          <t>190097</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>136555</t>
+          <t>197959</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>76,76%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>89,88%</t>
         </is>
       </c>
     </row>
@@ -11633,22 +11633,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11668,22 +11668,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11703,22 +11703,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11750,107 +11750,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13209</t>
+          <t>15126</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8889</t>
+          <t>12172</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18620</t>
+          <t>18247</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>40095</t>
+          <t>39507</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>32842</t>
+          <t>35049</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>48883</t>
+          <t>44185</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>341</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>53304</t>
+          <t>54633</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>44277</t>
+          <t>49196</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>63283</t>
+          <t>60462</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>27,29%</t>
         </is>
       </c>
     </row>
@@ -11863,107 +11863,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>460</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>55797</t>
+          <t>74097</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>50386</t>
+          <t>70976</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>60117</t>
+          <t>77051</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>80,86%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>79,55%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>560</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>72846</t>
+          <t>92805</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>64058</t>
+          <t>88127</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>80099</t>
+          <t>97263</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>70,92%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>128643</t>
+          <t>166902</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>118664</t>
+          <t>161073</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>137670</t>
+          <t>172339</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>75,34%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>75,66%</t>
+          <t>77,79%</t>
         </is>
       </c>
     </row>
@@ -11976,22 +11976,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>112941</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>112941</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>112941</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -12046,22 +12046,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>181947</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>181947</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>181947</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -12093,107 +12093,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>56125</t>
+          <t>39511</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45349</t>
+          <t>34726</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>68340</t>
+          <t>45037</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>499</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>112561</t>
+          <t>81418</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>97693</t>
+          <t>74968</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>129530</t>
+          <t>89543</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>736</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>168685</t>
+          <t>120930</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>150702</t>
+          <t>111446</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>190211</t>
+          <t>130345</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -12206,107 +12206,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>624063</t>
+          <t>684361</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>611848</t>
+          <t>678835</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>634839</t>
+          <t>689146</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>644685</t>
+          <t>716138</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>627716</t>
+          <t>708013</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>659553</t>
+          <t>722588</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>82,89%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>7817</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1268749</t>
+          <t>1400499</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1247223</t>
+          <t>1391084</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1286732</t>
+          <t>1409983</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>86,77%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>92,67%</t>
         </is>
       </c>
     </row>
@@ -12319,22 +12319,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>680188</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>680188</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>680188</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>757246</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>757246</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>757246</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12389,22 +12389,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1437434</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1437434</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1437434</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
